--- a/Files/college_info/all_colleges/VAGE/VAGE_placements.xlsx
+++ b/Files/college_info/all_colleges/VAGE/VAGE_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\self\VAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\github\python_project-dataset\Files\college_info\all_colleges\VAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79422895-4BC3-422F-880C-1A88919566C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48CD36D-5DE5-4195-9A50-17CE35B8B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>A &amp; CO Constructions</t>
   </si>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>Zinka logistics pvt Ltd</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Sl.NO</t>
@@ -539,12 +536,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,18 +837,18 @@
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,20 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2">
-        <v>545</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A141:B141"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
